--- a/acessinputs/Recension.xlsx
+++ b/acessinputs/Recension.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
   <si>
     <t>recensent</t>
   </si>
@@ -34,9 +34,6 @@
     <t>spelversion</t>
   </si>
   <si>
-    <t>namn</t>
-  </si>
-  <si>
     <t>Jeff Curtain</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>www.reviewftw.com/Pong</t>
   </si>
   <si>
-    <t>Pong</t>
-  </si>
-  <si>
     <t>Hasse Aro</t>
   </si>
   <si>
@@ -58,9 +52,6 @@
     <t>www.retroreviews.com/Zork</t>
   </si>
   <si>
-    <t>Zork</t>
-  </si>
-  <si>
     <t>Karin Kaster</t>
   </si>
   <si>
@@ -70,9 +61,6 @@
     <t>www.reviewftw.com/SpaceInvaders</t>
   </si>
   <si>
-    <t>space invaders</t>
-  </si>
-  <si>
     <t>Martin Timell</t>
   </si>
   <si>
@@ -82,9 +70,6 @@
     <t>www.reviewmetothemoon.com/Asteroids</t>
   </si>
   <si>
-    <t>Asteroids</t>
-  </si>
-  <si>
     <t>Cain Caloba</t>
   </si>
   <si>
@@ -94,18 +79,12 @@
     <t>www.retroreview.com/Adventure</t>
   </si>
   <si>
-    <t>Adventure</t>
-  </si>
-  <si>
     <t>Wow! Gul källa till glädje av samma rang som solen.</t>
   </si>
   <si>
     <t>www.reviewmetothemoon.com/PacMan</t>
   </si>
   <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
     <t>Grace Jones</t>
   </si>
   <si>
@@ -115,18 +94,12 @@
     <t>www.illreviewit.com/Defender</t>
   </si>
   <si>
-    <t>Defender</t>
-  </si>
-  <si>
     <t>Epsikt jungeläventyr som skänker mycket glädje!</t>
   </si>
   <si>
     <t>www.retroreview.com/DonkeyKong</t>
   </si>
   <si>
-    <t>Donkey Kong</t>
-  </si>
-  <si>
     <t>Kersti Varja</t>
   </si>
   <si>
@@ -136,9 +109,6 @@
     <t>www.illreviewit.com/Galaga</t>
   </si>
   <si>
-    <t>Galaga</t>
-  </si>
-  <si>
     <t>Jhua Jaman</t>
   </si>
   <si>
@@ -148,9 +118,6 @@
     <t>www.letsreview.com/Tempest</t>
   </si>
   <si>
-    <t>Tempest</t>
-  </si>
-  <si>
     <t>Li Wei</t>
   </si>
   <si>
@@ -160,9 +127,6 @@
     <t>www.retroreview.com/Joust</t>
   </si>
   <si>
-    <t>Joust</t>
-  </si>
-  <si>
     <t>Vide Ospelare</t>
   </si>
   <si>
@@ -172,45 +136,30 @@
     <t>www.reviewftw.com/MsPacMan</t>
   </si>
   <si>
-    <t>Ms. Pac-Man</t>
-  </si>
-  <si>
     <t>Ej utkommet.</t>
   </si>
   <si>
     <t>www.illreviewit.com/ff17</t>
   </si>
   <si>
-    <t>ff17</t>
-  </si>
-  <si>
     <t>Punch me too the moon please!</t>
   </si>
   <si>
     <t>www.retroreveiw.com/Punchout</t>
   </si>
   <si>
-    <t>Punch Out!</t>
-  </si>
-  <si>
     <t>Lever inte riktigt upp till filmernas världsklass.</t>
   </si>
   <si>
     <t>www.reviewmetothemoon.com/StarWars</t>
   </si>
   <si>
-    <t>Star wars</t>
-  </si>
-  <si>
     <t>Skulle inte kalla detta ett elitspel.</t>
   </si>
   <si>
     <t>www.illreviewit.com/Elite</t>
   </si>
   <si>
-    <t>Elite</t>
-  </si>
-  <si>
     <t>Charles Datawin</t>
   </si>
   <si>
@@ -220,18 +169,12 @@
     <t>www.retroreview.com/Tetris</t>
   </si>
   <si>
-    <t>Tetris</t>
-  </si>
-  <si>
     <t>Helt ok i några timmar, men inget att viga sitt liv åt.</t>
   </si>
   <si>
     <t>www.illreviewit.com/Gauntlet</t>
   </si>
   <si>
-    <t>Gauntlet</t>
-  </si>
-  <si>
     <t>Gun Rosèn</t>
   </si>
   <si>
@@ -241,18 +184,12 @@
     <t>www.reviewmetothemoon.com/GhostNGoblins</t>
   </si>
   <si>
-    <t>Ghost 'n goblins</t>
-  </si>
-  <si>
     <t>Ett skepp kommer lastat med FUN!</t>
   </si>
   <si>
     <t>www.reviewmetothemoon.com/SuperMarioBros</t>
   </si>
   <si>
-    <t>Super Mario Bros</t>
-  </si>
-  <si>
     <t>Harald Kalrquist</t>
   </si>
   <si>
@@ -262,9 +199,6 @@
     <t>www.reviewftw.com</t>
   </si>
   <si>
-    <t>FF7</t>
-  </si>
-  <si>
     <t>Förutom smärtorna i nacken efter att vänt huvet fram och tillbaka för att följa bollen så är det en fantastisk upplevelse att få ha bekantat meg med Pong.</t>
   </si>
   <si>
@@ -301,18 +235,12 @@
     <t>www.reviewftw.com/ff7steam</t>
   </si>
   <si>
-    <t>ff7</t>
-  </si>
-  <si>
     <t>Håler samma kvalite som till andra plattformar, känns helt rätt till SNES.</t>
   </si>
   <si>
     <t>www.reviewmetothemoon.com/SMBsnes</t>
   </si>
   <si>
-    <t>supermario bros snes</t>
-  </si>
-  <si>
     <t>Martin TImell</t>
   </si>
   <si>
@@ -322,61 +250,40 @@
     <t>www.illreviewit.com/StarWarsSnes</t>
   </si>
   <si>
-    <t>star wars nes</t>
-  </si>
-  <si>
     <t>Galaga är galage även på denna plattform, mediokert.</t>
   </si>
   <si>
     <t>www.reviewmetothemoon.com/galagasnes</t>
   </si>
   <si>
-    <t>galaga snes</t>
-  </si>
-  <si>
     <t>DONKY K ROCKAR! Även i detta country!</t>
   </si>
   <si>
     <t>www.letsreview.com/DKC</t>
   </si>
   <si>
-    <t>donkey kong country</t>
-  </si>
-  <si>
     <t>Final fantasy är lika magiskt som alltid, 10 av 10!!!!!</t>
   </si>
   <si>
     <t>www.illreviewit.com/ffix</t>
   </si>
   <si>
-    <t>ffix</t>
-  </si>
-  <si>
     <t>Många lyckliga speltimmar lämnar mig tårögd.</t>
   </si>
   <si>
     <t>www.illreviewit.com/DKQ</t>
   </si>
   <si>
-    <t>dkq</t>
-  </si>
-  <si>
     <t>Den nya grafiken ger ett välkommet lyft på en gammal diamant.</t>
   </si>
   <si>
     <t>www.illreviewit.com/ffixps3</t>
   </si>
   <si>
-    <t>ffix9 ps3</t>
-  </si>
-  <si>
     <t>Uppföljaren lever inte ritkgit upp till den storslagna arvet, men ändå kul.</t>
   </si>
   <si>
     <t>www.illreviewit.com/Spaceinvaders2</t>
-  </si>
-  <si>
-    <t>saceinvaders 2</t>
   </si>
 </sst>
 </file>
@@ -492,44 +399,40 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="H1" s="1"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="G2" s="2">
         <v>1.0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4">
         <v>8.0</v>
@@ -541,22 +444,20 @@
         <v>0.0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2">
         <v>2.0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4">
         <v>9.0</v>
@@ -568,21 +469,19 @@
         <v>0.0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2">
         <v>3.0</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4">
         <v>10.0</v>
@@ -594,22 +493,20 @@
         <v>0.0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2">
         <v>4.0</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4">
         <v>7.0</v>
@@ -621,22 +518,20 @@
         <v>0.0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2">
         <v>5.0</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4">
         <v>10.0</v>
@@ -648,22 +543,20 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2">
         <v>6.0</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4">
         <v>4.0</v>
@@ -675,22 +568,20 @@
         <v>0.0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2">
         <v>7.0</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4">
         <v>10.0</v>
@@ -702,21 +593,19 @@
         <v>0.0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G9" s="2">
         <v>8.0</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4">
         <v>3.0</v>
@@ -728,22 +617,20 @@
         <v>0.0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G10" s="2">
         <v>9.0</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4">
         <v>7.0</v>
@@ -755,22 +642,20 @@
         <v>0.0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2">
         <v>10.0</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="H11" s="1"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C12" s="4">
         <v>3.0</v>
@@ -782,22 +667,20 @@
         <v>0.0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G12" s="2">
         <v>11.0</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4">
         <v>4.0</v>
@@ -809,21 +692,19 @@
         <v>0.0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G13" s="2">
         <v>12.0</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C14" s="4">
         <v>0.0</v>
@@ -835,22 +716,20 @@
         <v>0.0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2">
         <v>13.0</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="H14" s="1"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C15" s="4">
         <v>7.0</v>
@@ -862,22 +741,20 @@
         <v>0.0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G15" s="2">
         <v>14.0</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C16" s="4">
         <v>6.0</v>
@@ -889,22 +766,20 @@
         <v>0.0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G16" s="2">
         <v>15.0</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="H16" s="1"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C17" s="4">
         <v>3.0</v>
@@ -916,22 +791,20 @@
         <v>0.0</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="G17" s="2">
         <v>16.0</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="H17" s="1"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4">
         <v>10.0</v>
@@ -943,22 +816,20 @@
         <v>0.0</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G18" s="2">
         <v>17.0</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="H18" s="1"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C19" s="4">
         <v>3.0</v>
@@ -970,22 +841,20 @@
         <v>0.0</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="G19" s="2">
         <v>18.0</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="H19" s="1"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C20" s="4">
         <v>8.0</v>
@@ -997,21 +866,19 @@
         <v>0.0</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="G20" s="2">
         <v>19.0</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2">
         <v>10.0</v>
@@ -1023,21 +890,19 @@
         <v>0.0</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G21" s="2">
         <v>20.0</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="H21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C22" s="4">
         <v>10.0</v>
@@ -1049,22 +914,20 @@
         <v>0.0</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G22" s="2">
         <v>21.0</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="H22" s="1"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C23" s="4">
         <v>10.0</v>
@@ -1076,22 +939,20 @@
         <v>0.0</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G23" s="2">
         <v>1.0</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="H23" s="1"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C24" s="4">
         <v>5.0</v>
@@ -1103,22 +964,20 @@
         <v>0.0</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="G24" s="2">
         <v>6.0</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="H24" s="1"/>
       <c r="I24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C25" s="4">
         <v>10.0</v>
@@ -1130,22 +989,20 @@
         <v>0.0</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="G25" s="2">
         <v>17.0</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="H25" s="1"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C26" s="4">
         <v>2.0</v>
@@ -1157,22 +1014,20 @@
         <v>0.0</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="G26" s="2">
         <v>2.0</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="H26" s="1"/>
       <c r="I26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C27" s="4">
         <v>5.0</v>
@@ -1184,22 +1039,20 @@
         <v>0.0</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="G27" s="7">
         <v>10.0</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="H27" s="1"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2">
         <v>9.0</v>
@@ -1211,21 +1064,19 @@
         <v>0.0</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="G28" s="8">
         <v>22.0</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="H28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C29" s="2">
         <v>10.0</v>
@@ -1237,21 +1088,19 @@
         <v>0.0</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="G29" s="7">
         <v>23.0</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="H29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C30" s="2">
         <v>4.0</v>
@@ -1263,21 +1112,19 @@
         <v>0.0</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="G30" s="8">
         <v>24.0</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="H30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C31" s="2">
         <v>2.0</v>
@@ -1289,21 +1136,19 @@
         <v>0.0</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G31" s="8">
         <v>25.0</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="H31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C32" s="2">
         <v>10.0</v>
@@ -1315,21 +1160,19 @@
         <v>0.0</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="G32" s="8">
         <v>26.0</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="H32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C33" s="2">
         <v>5.0</v>
@@ -1341,21 +1184,19 @@
         <v>0.0</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G33" s="8">
         <v>27.0</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="H33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C34" s="2">
         <v>5.0</v>
@@ -1367,21 +1208,19 @@
         <v>0.0</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="G34" s="8">
         <v>28.0</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="H34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C35" s="2">
         <v>5.0</v>
@@ -1393,21 +1232,19 @@
         <v>0.0</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="G35" s="8">
         <v>29.0</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="H35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C36" s="2">
         <v>2.0</v>
@@ -1419,14 +1256,12 @@
         <v>0.0</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G36" s="8">
         <v>30.0</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="H36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
